--- a/4.Analysis/Data/raw/day1/phase_003/subj_day1_phase_003.xlsx
+++ b/4.Analysis/Data/raw/day1/phase_003/subj_day1_phase_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t xml:space="preserve">USERID</t>
   </si>
@@ -152,6 +152,9 @@
     <t xml:space="preserve">社交能力	</t>
   </si>
   <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
@@ -330,6 +333,9 @@
   </si>
   <si>
     <t xml:space="preserve">个体对图形的反应能力	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">phase_003_subj_5</t>
@@ -992,13 +998,13 @@
         <v>46</v>
       </c>
       <c r="X2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA2" t="n">
         <v>671</v>
@@ -1006,19 +1012,19 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -1027,7 +1033,7 @@
         <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
         <v>35</v>
@@ -1066,22 +1072,22 @@
         <v>42</v>
       </c>
       <c r="U3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W3" t="s">
         <v>46</v>
       </c>
       <c r="X3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA3" t="n">
         <v>60</v>
@@ -1089,19 +1095,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -1110,7 +1116,7 @@
         <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
         <v>35</v>
@@ -1149,22 +1155,22 @@
         <v>42</v>
       </c>
       <c r="U4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="V4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W4" t="s">
         <v>46</v>
       </c>
       <c r="X4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA4" t="n">
         <v>470</v>
@@ -1172,19 +1178,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -1193,7 +1199,7 @@
         <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s">
         <v>35</v>
@@ -1232,22 +1238,22 @@
         <v>42</v>
       </c>
       <c r="U5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="V5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s">
         <v>46</v>
       </c>
       <c r="X5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="n">
         <v>148</v>
@@ -1255,19 +1261,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
         <v>32</v>
@@ -1276,7 +1282,7 @@
         <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s">
         <v>35</v>
@@ -1318,19 +1324,19 @@
         <v>42</v>
       </c>
       <c r="V6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W6" t="s">
         <v>46</v>
       </c>
       <c r="X6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA6" t="n">
         <v>216</v>
@@ -1338,19 +1344,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
@@ -1359,7 +1365,7 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I7" t="s">
         <v>35</v>
@@ -1380,7 +1386,7 @@
         <v>38</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P7" t="s">
         <v>40</v>
@@ -1398,22 +1404,22 @@
         <v>42</v>
       </c>
       <c r="U7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="V7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W7" t="s">
         <v>46</v>
       </c>
       <c r="X7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AA7" t="n">
         <v>693</v>
@@ -1421,19 +1427,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
@@ -1442,7 +1448,7 @@
         <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I8" t="s">
         <v>35</v>
@@ -1481,22 +1487,22 @@
         <v>42</v>
       </c>
       <c r="U8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="V8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W8" t="s">
         <v>46</v>
       </c>
       <c r="X8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AA8" t="n">
         <v>584</v>
@@ -1504,19 +1510,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F9" t="s">
         <v>32</v>
@@ -1525,7 +1531,7 @@
         <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I9" t="s">
         <v>35</v>
@@ -1567,19 +1573,19 @@
         <v>42</v>
       </c>
       <c r="V9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W9" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="X9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AA9" t="n">
         <v>178</v>
@@ -1587,19 +1593,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
         <v>32</v>
@@ -1608,7 +1614,7 @@
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I10" t="s">
         <v>35</v>
@@ -1617,7 +1623,7 @@
         <v>41</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
         <v>37</v>
@@ -1629,7 +1635,7 @@
         <v>37</v>
       </c>
       <c r="O10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P10" t="s">
         <v>40</v>
@@ -1647,22 +1653,22 @@
         <v>42</v>
       </c>
       <c r="U10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="V10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="W10" t="s">
         <v>46</v>
       </c>
       <c r="X10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AA10" t="n">
         <v>396</v>
@@ -1670,19 +1676,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F11" t="s">
         <v>32</v>
@@ -1691,7 +1697,7 @@
         <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
@@ -1712,7 +1718,7 @@
         <v>38</v>
       </c>
       <c r="O11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P11" t="s">
         <v>40</v>
@@ -1730,22 +1736,22 @@
         <v>42</v>
       </c>
       <c r="U11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="V11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W11" t="s">
         <v>46</v>
       </c>
       <c r="X11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AA11" t="n">
         <v>403</v>
@@ -1753,19 +1759,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F12" t="s">
         <v>32</v>
@@ -1774,7 +1780,7 @@
         <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I12" t="s">
         <v>35</v>
@@ -1816,19 +1822,19 @@
         <v>42</v>
       </c>
       <c r="V12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="W12" t="s">
         <v>46</v>
       </c>
       <c r="X12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AA12" t="n">
         <v>60</v>
@@ -1836,19 +1842,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F13" t="s">
         <v>32</v>
@@ -1857,7 +1863,7 @@
         <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I13" t="s">
         <v>35</v>
@@ -1896,22 +1902,22 @@
         <v>42</v>
       </c>
       <c r="U13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="V13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="W13" t="s">
         <v>46</v>
       </c>
       <c r="X13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AA13" t="n">
         <v>569</v>
@@ -1919,19 +1925,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F14" t="s">
         <v>32</v>
@@ -1940,7 +1946,7 @@
         <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I14" t="s">
         <v>35</v>
@@ -1979,22 +1985,22 @@
         <v>42</v>
       </c>
       <c r="U14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="V14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="W14" t="s">
         <v>46</v>
       </c>
       <c r="X14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AA14" t="n">
         <v>49</v>
@@ -2002,19 +2008,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F15" t="s">
         <v>32</v>
@@ -2023,7 +2029,7 @@
         <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I15" t="s">
         <v>35</v>
@@ -2038,13 +2044,13 @@
         <v>37</v>
       </c>
       <c r="M15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N15" t="s">
         <v>37</v>
       </c>
       <c r="O15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P15" t="s">
         <v>40</v>
@@ -2062,22 +2068,22 @@
         <v>42</v>
       </c>
       <c r="U15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="V15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="W15" t="s">
         <v>46</v>
       </c>
       <c r="X15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AA15" t="n">
         <v>681</v>
@@ -2085,19 +2091,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F16" t="s">
         <v>32</v>
@@ -2106,7 +2112,7 @@
         <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I16" t="s">
         <v>35</v>
@@ -2148,19 +2154,19 @@
         <v>42</v>
       </c>
       <c r="V16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="W16" t="s">
         <v>46</v>
       </c>
       <c r="X16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AA16" t="n">
         <v>681</v>

--- a/4.Analysis/Data/raw/day1/phase_003/subj_day1_phase_003.xlsx
+++ b/4.Analysis/Data/raw/day1/phase_003/subj_day1_phase_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t xml:space="preserve">USERID</t>
   </si>
@@ -152,12 +152,15 @@
     <t xml:space="preserve">社交能力	</t>
   </si>
   <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">phase_003_subj_13</t>
   </si>
   <si>
@@ -335,9 +338,6 @@
     <t xml:space="preserve">个体对图形的反应能力	</t>
   </si>
   <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
     <t xml:space="preserve">phase_003_subj_5</t>
   </si>
   <si>
@@ -444,9 +444,6 @@
   </si>
   <si>
     <t xml:space="preserve">	770196006494277634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
   </si>
   <si>
     <t xml:space="preserve">	韩寒</t>
@@ -1001,10 +998,10 @@
         <v>47</v>
       </c>
       <c r="Y2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA2" t="n">
         <v>671</v>
@@ -1012,19 +1009,19 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -1033,7 +1030,7 @@
         <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
         <v>35</v>
@@ -1072,10 +1069,10 @@
         <v>42</v>
       </c>
       <c r="U3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W3" t="s">
         <v>46</v>
@@ -1084,10 +1081,10 @@
         <v>47</v>
       </c>
       <c r="Y3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA3" t="n">
         <v>60</v>
@@ -1095,19 +1092,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -1116,7 +1113,7 @@
         <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I4" t="s">
         <v>35</v>
@@ -1155,10 +1152,10 @@
         <v>42</v>
       </c>
       <c r="U4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W4" t="s">
         <v>46</v>
@@ -1167,10 +1164,10 @@
         <v>47</v>
       </c>
       <c r="Y4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA4" t="n">
         <v>470</v>
@@ -1178,19 +1175,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -1199,7 +1196,7 @@
         <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s">
         <v>35</v>
@@ -1238,10 +1235,10 @@
         <v>42</v>
       </c>
       <c r="U5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W5" t="s">
         <v>46</v>
@@ -1250,10 +1247,10 @@
         <v>47</v>
       </c>
       <c r="Y5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="n">
         <v>148</v>
@@ -1261,19 +1258,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
         <v>32</v>
@@ -1282,7 +1279,7 @@
         <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s">
         <v>35</v>
@@ -1324,7 +1321,7 @@
         <v>42</v>
       </c>
       <c r="V6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W6" t="s">
         <v>46</v>
@@ -1333,10 +1330,10 @@
         <v>47</v>
       </c>
       <c r="Y6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA6" t="n">
         <v>216</v>
@@ -1344,19 +1341,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
@@ -1365,7 +1362,7 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I7" t="s">
         <v>35</v>
@@ -1386,7 +1383,7 @@
         <v>38</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P7" t="s">
         <v>40</v>
@@ -1404,10 +1401,10 @@
         <v>42</v>
       </c>
       <c r="U7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="W7" t="s">
         <v>46</v>
@@ -1416,10 +1413,10 @@
         <v>47</v>
       </c>
       <c r="Y7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA7" t="n">
         <v>693</v>
@@ -1427,19 +1424,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
@@ -1448,7 +1445,7 @@
         <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I8" t="s">
         <v>35</v>
@@ -1487,10 +1484,10 @@
         <v>42</v>
       </c>
       <c r="U8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W8" t="s">
         <v>46</v>
@@ -1499,10 +1496,10 @@
         <v>47</v>
       </c>
       <c r="Y8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AA8" t="n">
         <v>584</v>
@@ -1510,19 +1507,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
         <v>32</v>
@@ -1531,7 +1528,7 @@
         <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I9" t="s">
         <v>35</v>
@@ -1573,16 +1570,16 @@
         <v>42</v>
       </c>
       <c r="V9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="W9" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="X9" t="s">
         <v>47</v>
       </c>
       <c r="Y9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z9" t="s">
         <v>108</v>
@@ -1635,7 +1632,7 @@
         <v>37</v>
       </c>
       <c r="O10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P10" t="s">
         <v>40</v>
@@ -1653,7 +1650,7 @@
         <v>42</v>
       </c>
       <c r="U10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V10" t="s">
         <v>116</v>
@@ -1665,7 +1662,7 @@
         <v>47</v>
       </c>
       <c r="Y10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z10" t="s">
         <v>117</v>
@@ -1736,10 +1733,10 @@
         <v>42</v>
       </c>
       <c r="U11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W11" t="s">
         <v>46</v>
@@ -1748,7 +1745,7 @@
         <v>47</v>
       </c>
       <c r="Y11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z11" t="s">
         <v>125</v>
@@ -1831,7 +1828,7 @@
         <v>47</v>
       </c>
       <c r="Y12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z12" t="s">
         <v>133</v>
@@ -1914,7 +1911,7 @@
         <v>47</v>
       </c>
       <c r="Y13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z13" t="s">
         <v>142</v>
@@ -1928,16 +1925,16 @@
         <v>143</v>
       </c>
       <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
         <v>144</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>145</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>146</v>
-      </c>
-      <c r="E14" t="s">
-        <v>147</v>
       </c>
       <c r="F14" t="s">
         <v>32</v>
@@ -1946,7 +1943,7 @@
         <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I14" t="s">
         <v>35</v>
@@ -1985,10 +1982,10 @@
         <v>42</v>
       </c>
       <c r="U14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W14" t="s">
         <v>46</v>
@@ -1997,10 +1994,10 @@
         <v>47</v>
       </c>
       <c r="Y14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA14" t="n">
         <v>49</v>
@@ -2008,19 +2005,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" t="s">
         <v>151</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>152</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>153</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>154</v>
-      </c>
-      <c r="E15" t="s">
-        <v>155</v>
       </c>
       <c r="F15" t="s">
         <v>32</v>
@@ -2029,7 +2026,7 @@
         <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I15" t="s">
         <v>35</v>
@@ -2044,13 +2041,13 @@
         <v>37</v>
       </c>
       <c r="M15" t="s">
+        <v>156</v>
+      </c>
+      <c r="N15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" t="s">
         <v>157</v>
-      </c>
-      <c r="N15" t="s">
-        <v>37</v>
-      </c>
-      <c r="O15" t="s">
-        <v>158</v>
       </c>
       <c r="P15" t="s">
         <v>40</v>
@@ -2068,10 +2065,10 @@
         <v>42</v>
       </c>
       <c r="U15" t="s">
+        <v>158</v>
+      </c>
+      <c r="V15" t="s">
         <v>159</v>
-      </c>
-      <c r="V15" t="s">
-        <v>160</v>
       </c>
       <c r="W15" t="s">
         <v>46</v>
@@ -2080,10 +2077,10 @@
         <v>47</v>
       </c>
       <c r="Y15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AA15" t="n">
         <v>681</v>
@@ -2091,19 +2088,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" t="s">
         <v>162</v>
       </c>
-      <c r="C16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>163</v>
-      </c>
-      <c r="E16" t="s">
-        <v>164</v>
       </c>
       <c r="F16" t="s">
         <v>32</v>
@@ -2112,7 +2109,7 @@
         <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I16" t="s">
         <v>35</v>
@@ -2154,7 +2151,7 @@
         <v>42</v>
       </c>
       <c r="V16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="W16" t="s">
         <v>46</v>
@@ -2163,10 +2160,10 @@
         <v>47</v>
       </c>
       <c r="Y16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AA16" t="n">
         <v>681</v>

--- a/4.Analysis/Data/raw/day1/phase_003/subj_day1_phase_003.xlsx
+++ b/4.Analysis/Data/raw/day1/phase_003/subj_day1_phase_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t xml:space="preserve">USERID</t>
   </si>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">社交能力	</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
+    <t xml:space="preserve">yes</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t xml:space="preserve">个体对图形的反应能力	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">phase_003_subj_5</t>
@@ -1573,7 +1576,7 @@
         <v>107</v>
       </c>
       <c r="W9" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="X9" t="s">
         <v>47</v>
@@ -1582,7 +1585,7 @@
         <v>48</v>
       </c>
       <c r="Z9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA9" t="n">
         <v>178</v>
@@ -1590,19 +1593,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F10" t="s">
         <v>32</v>
@@ -1611,7 +1614,7 @@
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I10" t="s">
         <v>35</v>
@@ -1620,7 +1623,7 @@
         <v>41</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
         <v>37</v>
@@ -1653,7 +1656,7 @@
         <v>65</v>
       </c>
       <c r="V10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="W10" t="s">
         <v>46</v>
@@ -1665,7 +1668,7 @@
         <v>48</v>
       </c>
       <c r="Z10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA10" t="n">
         <v>396</v>
@@ -1673,19 +1676,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F11" t="s">
         <v>32</v>
@@ -1694,7 +1697,7 @@
         <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
@@ -1715,7 +1718,7 @@
         <v>38</v>
       </c>
       <c r="O11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P11" t="s">
         <v>40</v>
@@ -1748,7 +1751,7 @@
         <v>48</v>
       </c>
       <c r="Z11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AA11" t="n">
         <v>403</v>
@@ -1756,19 +1759,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F12" t="s">
         <v>32</v>
@@ -1777,7 +1780,7 @@
         <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I12" t="s">
         <v>35</v>
@@ -1819,7 +1822,7 @@
         <v>42</v>
       </c>
       <c r="V12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="W12" t="s">
         <v>46</v>
@@ -1831,7 +1834,7 @@
         <v>48</v>
       </c>
       <c r="Z12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA12" t="n">
         <v>60</v>
@@ -1839,19 +1842,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F13" t="s">
         <v>32</v>
@@ -1860,7 +1863,7 @@
         <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I13" t="s">
         <v>35</v>
@@ -1899,10 +1902,10 @@
         <v>42</v>
       </c>
       <c r="U13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="W13" t="s">
         <v>46</v>
@@ -1914,7 +1917,7 @@
         <v>48</v>
       </c>
       <c r="Z13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AA13" t="n">
         <v>569</v>
@@ -1922,19 +1925,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
         <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F14" t="s">
         <v>32</v>
@@ -1943,7 +1946,7 @@
         <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I14" t="s">
         <v>35</v>
@@ -1985,7 +1988,7 @@
         <v>65</v>
       </c>
       <c r="V14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W14" t="s">
         <v>46</v>
@@ -1997,7 +2000,7 @@
         <v>48</v>
       </c>
       <c r="Z14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA14" t="n">
         <v>49</v>
@@ -2005,19 +2008,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F15" t="s">
         <v>32</v>
@@ -2026,7 +2029,7 @@
         <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I15" t="s">
         <v>35</v>
@@ -2041,13 +2044,13 @@
         <v>37</v>
       </c>
       <c r="M15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N15" t="s">
         <v>37</v>
       </c>
       <c r="O15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P15" t="s">
         <v>40</v>
@@ -2065,10 +2068,10 @@
         <v>42</v>
       </c>
       <c r="U15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="V15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="W15" t="s">
         <v>46</v>
@@ -2080,7 +2083,7 @@
         <v>48</v>
       </c>
       <c r="Z15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA15" t="n">
         <v>681</v>
@@ -2088,19 +2091,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F16" t="s">
         <v>32</v>
@@ -2109,7 +2112,7 @@
         <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I16" t="s">
         <v>35</v>
@@ -2151,7 +2154,7 @@
         <v>42</v>
       </c>
       <c r="V16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W16" t="s">
         <v>46</v>
@@ -2163,7 +2166,7 @@
         <v>48</v>
       </c>
       <c r="Z16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA16" t="n">
         <v>681</v>
